--- a/13/1/2/1/5/Operaciones financieras 1990 a 2020 - Anual.xlsx
+++ b/13/1/2/1/5/Operaciones financieras 1990 a 2020 - Anual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>Serie</t>
   </si>
@@ -86,6 +86,72 @@
   </si>
   <si>
     <t>Financiamiento (superávit o déficit efectivo)</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
   </si>
   <si>
     <t>2012</t>
@@ -470,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB10"/>
+  <dimension ref="A1:AB32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -567,85 +633,85 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>1288795</v>
+        <v>255291</v>
       </c>
       <c r="C2">
-        <v>-46095</v>
+        <v>4619</v>
       </c>
       <c r="D2">
-        <v>219064</v>
+        <v>54662</v>
       </c>
       <c r="E2">
-        <v>265159</v>
+        <v>50043</v>
       </c>
       <c r="F2">
-        <v>981201</v>
+        <v>-30183</v>
       </c>
       <c r="G2">
-        <v>6311828</v>
+        <v>37588</v>
       </c>
       <c r="H2">
-        <v>5330626</v>
+        <v>67771</v>
       </c>
       <c r="I2">
-        <v>-16399</v>
+        <v>4</v>
       </c>
       <c r="J2">
-        <v>371083</v>
+        <v>114957</v>
       </c>
       <c r="K2">
-        <v>-998</v>
+        <v>215349</v>
       </c>
       <c r="L2">
-        <v>-998</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>215349</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>-49455</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>561128</v>
+        <v>20737</v>
       </c>
       <c r="Q2">
-        <v>326174</v>
+        <v>-16250</v>
       </c>
       <c r="R2">
-        <v>729635</v>
+        <v>148718</v>
       </c>
       <c r="S2">
-        <v>703862</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>25773</v>
+        <v>148718</v>
       </c>
       <c r="U2">
-        <v>403460</v>
+        <v>164968</v>
       </c>
       <c r="V2">
-        <v>1062014</v>
+        <v>-40307</v>
       </c>
       <c r="W2">
-        <v>1676163</v>
+        <v>6687</v>
       </c>
       <c r="X2">
-        <v>1676163</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>6687</v>
       </c>
       <c r="Z2">
-        <v>614149</v>
+        <v>46994</v>
       </c>
       <c r="AA2">
-        <v>-827060</v>
+        <v>77294</v>
       </c>
       <c r="AB2">
-        <v>727667</v>
+        <v>234554</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -653,85 +719,85 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>-640318</v>
+        <v>242524</v>
       </c>
       <c r="C3">
-        <v>-189469</v>
+        <v>5895</v>
       </c>
       <c r="D3">
-        <v>187745</v>
+        <v>70756</v>
       </c>
       <c r="E3">
-        <v>377214</v>
+        <v>64861</v>
       </c>
       <c r="F3">
-        <v>190063</v>
+        <v>-6581</v>
       </c>
       <c r="G3">
-        <v>5647820</v>
+        <v>61107</v>
       </c>
       <c r="H3">
-        <v>5457757</v>
+        <v>67688</v>
       </c>
       <c r="I3">
-        <v>-16008</v>
+        <v>-1682</v>
       </c>
       <c r="J3">
-        <v>-624905</v>
+        <v>121728</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>126662</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>-26571</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>153233</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>-48964</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>45466</v>
       </c>
       <c r="P3">
-        <v>183421</v>
+        <v>40504</v>
       </c>
       <c r="Q3">
-        <v>-448604</v>
+        <v>45190</v>
       </c>
       <c r="R3">
-        <v>4228</v>
+        <v>246249</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>4228</v>
+        <v>246249</v>
       </c>
       <c r="U3">
-        <v>452832</v>
+        <v>201059</v>
       </c>
       <c r="V3">
-        <v>1472437</v>
+        <v>-101573</v>
       </c>
       <c r="W3">
-        <v>2209273</v>
+        <v>9194</v>
       </c>
       <c r="X3">
-        <v>2209273</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>9194</v>
       </c>
       <c r="Z3">
-        <v>736836</v>
+        <v>110767</v>
       </c>
       <c r="AA3">
-        <v>-840412</v>
+        <v>96887</v>
       </c>
       <c r="AB3">
-        <v>-823740</v>
+        <v>202020</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -739,85 +805,85 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>246797</v>
+        <v>362200</v>
       </c>
       <c r="C4">
-        <v>-84059</v>
+        <v>5032</v>
       </c>
       <c r="D4">
-        <v>205160</v>
+        <v>114204</v>
       </c>
       <c r="E4">
-        <v>289219</v>
+        <v>109172</v>
       </c>
       <c r="F4">
-        <v>1610653</v>
+        <v>-41747</v>
       </c>
       <c r="G4">
-        <v>5747172</v>
+        <v>72053</v>
       </c>
       <c r="H4">
-        <v>4136519</v>
+        <v>113800</v>
       </c>
       <c r="I4">
-        <v>-6461</v>
+        <v>-597</v>
       </c>
       <c r="J4">
-        <v>-1273336</v>
+        <v>344422</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>44969</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>-3725</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>48694</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7753</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2367</v>
       </c>
       <c r="P4">
-        <v>2657743</v>
+        <v>18244</v>
       </c>
       <c r="Q4">
-        <v>873992</v>
+        <v>-31351</v>
       </c>
       <c r="R4">
-        <v>1270979</v>
+        <v>225606</v>
       </c>
       <c r="S4">
-        <v>1247177</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>23802</v>
+        <v>225606</v>
       </c>
       <c r="U4">
-        <v>396987</v>
+        <v>256957</v>
       </c>
       <c r="V4">
-        <v>2574376</v>
+        <v>-51352</v>
       </c>
       <c r="W4">
-        <v>3718528</v>
+        <v>2691</v>
       </c>
       <c r="X4">
-        <v>3718528</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>2691</v>
       </c>
       <c r="Z4">
-        <v>1144152</v>
+        <v>54043</v>
       </c>
       <c r="AA4">
-        <v>-790625</v>
+        <v>100947</v>
       </c>
       <c r="AB4">
-        <v>-2410946</v>
+        <v>343956</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -825,85 +891,85 @@
         <v>27</v>
       </c>
       <c r="B5">
-        <v>-369106</v>
+        <v>20348</v>
       </c>
       <c r="C5">
-        <v>46236</v>
+        <v>-25465</v>
       </c>
       <c r="D5">
-        <v>402934</v>
+        <v>105841</v>
       </c>
       <c r="E5">
-        <v>356698</v>
+        <v>131306</v>
       </c>
       <c r="F5">
-        <v>-586704</v>
+        <v>-25654</v>
       </c>
       <c r="G5">
-        <v>4999018</v>
+        <v>92106</v>
       </c>
       <c r="H5">
-        <v>5585722</v>
+        <v>117760</v>
       </c>
       <c r="I5">
-        <v>-21029</v>
+        <v>1432</v>
       </c>
       <c r="J5">
-        <v>192392</v>
+        <v>67741</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>-24406</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>-37913</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>13507</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="P5">
-        <v>3041473</v>
+        <v>-253591</v>
       </c>
       <c r="Q5">
-        <v>846157</v>
+        <v>-303311</v>
       </c>
       <c r="R5">
-        <v>950702</v>
+        <v>95285</v>
       </c>
       <c r="S5">
-        <v>912376</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>38326</v>
+        <v>95285</v>
       </c>
       <c r="U5">
-        <v>104545</v>
+        <v>398596</v>
       </c>
       <c r="V5">
-        <v>2938349</v>
+        <v>-41288</v>
       </c>
       <c r="W5">
-        <v>4653384</v>
+        <v>310</v>
       </c>
       <c r="X5">
-        <v>4653384</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="Z5">
-        <v>1715035</v>
+        <v>41598</v>
       </c>
       <c r="AA5">
-        <v>-743033</v>
+        <v>91008</v>
       </c>
       <c r="AB5">
-        <v>-3410578</v>
+        <v>273940</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -911,85 +977,85 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>1031939</v>
+        <v>209249</v>
       </c>
       <c r="C6">
-        <v>-142433</v>
+        <v>-13876</v>
       </c>
       <c r="D6">
-        <v>326708</v>
+        <v>120809</v>
       </c>
       <c r="E6">
-        <v>469141</v>
+        <v>134685</v>
       </c>
       <c r="F6">
-        <v>1560526</v>
+        <v>-21797</v>
       </c>
       <c r="G6">
-        <v>6039331</v>
+        <v>139724</v>
       </c>
       <c r="H6">
-        <v>4478805</v>
+        <v>161521</v>
       </c>
       <c r="I6">
-        <v>-16938</v>
+        <v>-611</v>
       </c>
       <c r="J6">
-        <v>-369217</v>
+        <v>277995</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>44932</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>-22053</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>66985</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>-55446</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>-21948</v>
       </c>
       <c r="P6">
-        <v>5628807</v>
+        <v>-138899</v>
       </c>
       <c r="Q6">
-        <v>1403369</v>
+        <v>-154132</v>
       </c>
       <c r="R6">
-        <v>1945463</v>
+        <v>92275</v>
       </c>
       <c r="S6">
-        <v>1877982</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>67481</v>
+        <v>92275</v>
       </c>
       <c r="U6">
-        <v>542094</v>
+        <v>246407</v>
       </c>
       <c r="V6">
-        <v>4933434</v>
+        <v>-65180</v>
       </c>
       <c r="W6">
-        <v>18005909</v>
+        <v>40</v>
       </c>
       <c r="X6">
-        <v>18005909</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Z6">
-        <v>13072475</v>
+        <v>65220</v>
       </c>
       <c r="AA6">
-        <v>-707996</v>
+        <v>80413</v>
       </c>
       <c r="AB6">
-        <v>-4596869</v>
+        <v>348149</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -997,85 +1063,85 @@
         <v>29</v>
       </c>
       <c r="B7">
-        <v>645308</v>
+        <v>153160</v>
       </c>
       <c r="C7">
-        <v>186694</v>
+        <v>-35046</v>
       </c>
       <c r="D7">
-        <v>775343</v>
+        <v>112453</v>
       </c>
       <c r="E7">
-        <v>588649</v>
+        <v>147499</v>
       </c>
       <c r="F7">
-        <v>709053</v>
+        <v>-53695</v>
       </c>
       <c r="G7">
-        <v>5627265</v>
+        <v>139436</v>
       </c>
       <c r="H7">
-        <v>4918212</v>
+        <v>193131</v>
       </c>
       <c r="I7">
-        <v>16398</v>
+        <v>3777</v>
       </c>
       <c r="J7">
-        <v>-266837</v>
+        <v>5085</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>276883</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>-6340</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>283223</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>-14241</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>-29603</v>
       </c>
       <c r="P7">
-        <v>5592686</v>
+        <v>-726718</v>
       </c>
       <c r="Q7">
-        <v>1414619</v>
+        <v>-689495</v>
       </c>
       <c r="R7">
-        <v>1701995</v>
+        <v>66079</v>
       </c>
       <c r="S7">
-        <v>1661950</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>40045</v>
+        <v>66079</v>
       </c>
       <c r="U7">
-        <v>287376</v>
+        <v>755574</v>
       </c>
       <c r="V7">
-        <v>4813524</v>
+        <v>-103739</v>
       </c>
       <c r="W7">
-        <v>6531053</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>6531053</v>
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>1717529</v>
+        <v>103739</v>
       </c>
       <c r="AA7">
-        <v>-635457</v>
+        <v>66516</v>
       </c>
       <c r="AB7">
-        <v>-4947379</v>
+        <v>879878</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1083,85 +1149,85 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>16600</v>
+        <v>85911</v>
       </c>
       <c r="C8">
-        <v>60955</v>
+        <v>-14106</v>
       </c>
       <c r="D8">
-        <v>818826</v>
+        <v>137843</v>
       </c>
       <c r="E8">
-        <v>757870</v>
+        <v>151949</v>
       </c>
       <c r="F8">
-        <v>305737</v>
+        <v>-25580</v>
       </c>
       <c r="G8">
-        <v>4604618</v>
+        <v>123607</v>
       </c>
       <c r="H8">
-        <v>4298882</v>
+        <v>149187</v>
       </c>
       <c r="I8">
-        <v>7367</v>
+        <v>46</v>
       </c>
       <c r="J8">
-        <v>-357459</v>
+        <v>14114</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>58658</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>-22895</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>81553</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>52779</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>3169937</v>
+        <v>-599263</v>
       </c>
       <c r="Q8">
-        <v>1268794</v>
+        <v>-336284</v>
       </c>
       <c r="R8">
-        <v>1929549</v>
+        <v>52042</v>
       </c>
       <c r="S8">
-        <v>1807922</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>121627</v>
+        <v>52042</v>
       </c>
       <c r="U8">
-        <v>660755</v>
+        <v>388326</v>
       </c>
       <c r="V8">
-        <v>2472855</v>
+        <v>-316938</v>
       </c>
       <c r="W8">
-        <v>8050818</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>8050818</v>
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>5577962</v>
+        <v>316938</v>
       </c>
       <c r="AA8">
-        <v>-571712</v>
+        <v>53959</v>
       </c>
       <c r="AB8">
-        <v>-3153338</v>
+        <v>685175</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1169,85 +1235,85 @@
         <v>31</v>
       </c>
       <c r="B9">
-        <v>-1265404</v>
+        <v>338572</v>
       </c>
       <c r="C9">
-        <v>-257143</v>
+        <v>19007</v>
       </c>
       <c r="D9">
-        <v>982507</v>
+        <v>174581</v>
       </c>
       <c r="E9">
-        <v>1239650</v>
+        <v>155574</v>
       </c>
       <c r="F9">
-        <v>-1258174</v>
+        <v>-53409</v>
       </c>
       <c r="G9">
-        <v>5134386</v>
+        <v>151182</v>
       </c>
       <c r="H9">
-        <v>6392560</v>
+        <v>204591</v>
       </c>
       <c r="I9">
-        <v>-2801</v>
+        <v>-345</v>
       </c>
       <c r="J9">
-        <v>252714</v>
+        <v>341777</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>25866</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>-23645</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>49511</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5676</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>4355699</v>
+        <v>-370764</v>
       </c>
       <c r="Q9">
-        <v>1001038</v>
+        <v>-215463</v>
       </c>
       <c r="R9">
-        <v>1750959</v>
+        <v>60382</v>
       </c>
       <c r="S9">
-        <v>1688362</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>62597</v>
+        <v>60382</v>
       </c>
       <c r="U9">
-        <v>749921</v>
+        <v>275845</v>
       </c>
       <c r="V9">
-        <v>3822110</v>
+        <v>-177661</v>
       </c>
       <c r="W9">
-        <v>7265480</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>7265480</v>
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>3443369</v>
+        <v>177661</v>
       </c>
       <c r="AA9">
-        <v>-467450</v>
+        <v>22360</v>
       </c>
       <c r="AB9">
-        <v>-5621103</v>
+        <v>709336</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1255,84 +1321,1976 @@
         <v>32</v>
       </c>
       <c r="B10">
+        <v>-344908</v>
+      </c>
+      <c r="C10">
+        <v>34256</v>
+      </c>
+      <c r="D10">
+        <v>190568</v>
+      </c>
+      <c r="E10">
+        <v>156312</v>
+      </c>
+      <c r="F10">
+        <v>-72412</v>
+      </c>
+      <c r="G10">
+        <v>95546</v>
+      </c>
+      <c r="H10">
+        <v>167958</v>
+      </c>
+      <c r="I10">
+        <v>-4513</v>
+      </c>
+      <c r="J10">
+        <v>-322750</v>
+      </c>
+      <c r="K10">
+        <v>-115905</v>
+      </c>
+      <c r="L10">
+        <v>-166651</v>
+      </c>
+      <c r="M10">
+        <v>50746</v>
+      </c>
+      <c r="N10">
+        <v>44181</v>
+      </c>
+      <c r="O10">
+        <v>92235</v>
+      </c>
+      <c r="P10">
+        <v>-495848</v>
+      </c>
+      <c r="Q10">
+        <v>-100043</v>
+      </c>
+      <c r="R10">
+        <v>50741</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>50741</v>
+      </c>
+      <c r="U10">
+        <v>150784</v>
+      </c>
+      <c r="V10">
+        <v>-386491</v>
+      </c>
+      <c r="W10">
+        <v>1280</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>1280</v>
+      </c>
+      <c r="Z10">
+        <v>387771</v>
+      </c>
+      <c r="AA10">
+        <v>-9314</v>
+      </c>
+      <c r="AB10">
+        <v>150940</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>-978338</v>
+      </c>
+      <c r="C11">
+        <v>51640</v>
+      </c>
+      <c r="D11">
+        <v>205921</v>
+      </c>
+      <c r="E11">
+        <v>154281</v>
+      </c>
+      <c r="F11">
+        <v>-173216</v>
+      </c>
+      <c r="G11">
+        <v>115904</v>
+      </c>
+      <c r="H11">
+        <v>289120</v>
+      </c>
+      <c r="I11">
+        <v>-5101</v>
+      </c>
+      <c r="J11">
+        <v>-549100</v>
+      </c>
+      <c r="K11">
+        <v>-296807</v>
+      </c>
+      <c r="L11">
+        <v>-326760</v>
+      </c>
+      <c r="M11">
+        <v>29953</v>
+      </c>
+      <c r="N11">
+        <v>34679</v>
+      </c>
+      <c r="O11">
+        <v>-40433</v>
+      </c>
+      <c r="P11">
+        <v>-187848</v>
+      </c>
+      <c r="Q11">
+        <v>156217</v>
+      </c>
+      <c r="R11">
+        <v>317761</v>
+      </c>
+      <c r="S11">
+        <v>241165</v>
+      </c>
+      <c r="T11">
+        <v>76596</v>
+      </c>
+      <c r="U11">
+        <v>161544</v>
+      </c>
+      <c r="V11">
+        <v>-275026</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>275026</v>
+      </c>
+      <c r="AA11">
+        <v>-69039</v>
+      </c>
+      <c r="AB11">
+        <v>-790491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>-552858</v>
+      </c>
+      <c r="C12">
+        <v>39995</v>
+      </c>
+      <c r="D12">
+        <v>168007</v>
+      </c>
+      <c r="E12">
+        <v>128012</v>
+      </c>
+      <c r="F12">
+        <v>-331521</v>
+      </c>
+      <c r="G12">
+        <v>330963</v>
+      </c>
+      <c r="H12">
+        <v>662484</v>
+      </c>
+      <c r="I12">
+        <v>110</v>
+      </c>
+      <c r="J12">
+        <v>55097</v>
+      </c>
+      <c r="K12">
+        <v>-107435</v>
+      </c>
+      <c r="L12">
+        <v>-254520</v>
+      </c>
+      <c r="M12">
+        <v>147085</v>
+      </c>
+      <c r="N12">
+        <v>-284579</v>
+      </c>
+      <c r="O12">
+        <v>75475</v>
+      </c>
+      <c r="P12">
+        <v>-285776</v>
+      </c>
+      <c r="Q12">
+        <v>-119773</v>
+      </c>
+      <c r="R12">
+        <v>53989</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>53989</v>
+      </c>
+      <c r="U12">
+        <v>173762</v>
+      </c>
+      <c r="V12">
+        <v>-60114</v>
+      </c>
+      <c r="W12">
+        <v>461</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>461</v>
+      </c>
+      <c r="Z12">
+        <v>60575</v>
+      </c>
+      <c r="AA12">
+        <v>-105888</v>
+      </c>
+      <c r="AB12">
+        <v>-267083</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>-334654</v>
+      </c>
+      <c r="C13">
+        <v>-28223</v>
+      </c>
+      <c r="D13">
+        <v>137385</v>
+      </c>
+      <c r="E13">
+        <v>165608</v>
+      </c>
+      <c r="F13">
+        <v>104979</v>
+      </c>
+      <c r="G13">
+        <v>561001</v>
+      </c>
+      <c r="H13">
+        <v>456022</v>
+      </c>
+      <c r="I13">
+        <v>-3864</v>
+      </c>
+      <c r="J13">
+        <v>-337271</v>
+      </c>
+      <c r="K13">
+        <v>-268550</v>
+      </c>
+      <c r="L13">
+        <v>-281758</v>
+      </c>
+      <c r="M13">
+        <v>13208</v>
+      </c>
+      <c r="N13">
+        <v>253781</v>
+      </c>
+      <c r="O13">
+        <v>-55505</v>
+      </c>
+      <c r="P13">
+        <v>-101907</v>
+      </c>
+      <c r="Q13">
+        <v>304803</v>
+      </c>
+      <c r="R13">
+        <v>504366</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>504366</v>
+      </c>
+      <c r="U13">
+        <v>199563</v>
+      </c>
+      <c r="V13">
+        <v>-226666</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>226666</v>
+      </c>
+      <c r="AA13">
+        <v>-180045</v>
+      </c>
+      <c r="AB13">
+        <v>-232747</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>-778644</v>
+      </c>
+      <c r="C14">
+        <v>-18062</v>
+      </c>
+      <c r="D14">
+        <v>158430</v>
+      </c>
+      <c r="E14">
+        <v>176492</v>
+      </c>
+      <c r="F14">
+        <v>-112220</v>
+      </c>
+      <c r="G14">
+        <v>1009417</v>
+      </c>
+      <c r="H14">
+        <v>1121637</v>
+      </c>
+      <c r="I14">
+        <v>-1315</v>
+      </c>
+      <c r="J14">
+        <v>-341751</v>
+      </c>
+      <c r="K14">
+        <v>-284523</v>
+      </c>
+      <c r="L14">
+        <v>-304557</v>
+      </c>
+      <c r="M14">
+        <v>20034</v>
+      </c>
+      <c r="N14">
+        <v>63450</v>
+      </c>
+      <c r="O14">
+        <v>-84223</v>
+      </c>
+      <c r="P14">
+        <v>-203818</v>
+      </c>
+      <c r="Q14">
+        <v>360886</v>
+      </c>
+      <c r="R14">
+        <v>755630</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>755630</v>
+      </c>
+      <c r="U14">
+        <v>394744</v>
+      </c>
+      <c r="V14">
+        <v>-393346</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>393346</v>
+      </c>
+      <c r="AA14">
+        <v>-171358</v>
+      </c>
+      <c r="AB14">
+        <v>-574825</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>-169748</v>
+      </c>
+      <c r="C15">
+        <v>-36506</v>
+      </c>
+      <c r="D15">
+        <v>159210</v>
+      </c>
+      <c r="E15">
+        <v>195716</v>
+      </c>
+      <c r="F15">
+        <v>133451</v>
+      </c>
+      <c r="G15">
+        <v>938677</v>
+      </c>
+      <c r="H15">
+        <v>805226</v>
+      </c>
+      <c r="I15">
+        <v>2642</v>
+      </c>
+      <c r="J15">
+        <v>-106523</v>
+      </c>
+      <c r="K15">
+        <v>-112427</v>
+      </c>
+      <c r="L15">
+        <v>-119424</v>
+      </c>
+      <c r="M15">
+        <v>6997</v>
+      </c>
+      <c r="N15">
+        <v>-50385</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>60719</v>
+      </c>
+      <c r="Q15">
+        <v>520564</v>
+      </c>
+      <c r="R15">
+        <v>817287</v>
+      </c>
+      <c r="S15">
+        <v>722480</v>
+      </c>
+      <c r="T15">
+        <v>94807</v>
+      </c>
+      <c r="U15">
+        <v>296723</v>
+      </c>
+      <c r="V15">
+        <v>-196162</v>
+      </c>
+      <c r="W15">
+        <v>206141</v>
+      </c>
+      <c r="X15">
+        <v>206141</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>402303</v>
+      </c>
+      <c r="AA15">
+        <v>-263683</v>
+      </c>
+      <c r="AB15">
+        <v>-230468</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>789700</v>
+      </c>
+      <c r="C16">
+        <v>13020</v>
+      </c>
+      <c r="D16">
+        <v>172149</v>
+      </c>
+      <c r="E16">
+        <v>159129</v>
+      </c>
+      <c r="F16">
+        <v>551679</v>
+      </c>
+      <c r="G16">
+        <v>965212</v>
+      </c>
+      <c r="H16">
+        <v>413533</v>
+      </c>
+      <c r="I16">
+        <v>-4388</v>
+      </c>
+      <c r="J16">
+        <v>150118</v>
+      </c>
+      <c r="K16">
+        <v>764429</v>
+      </c>
+      <c r="L16">
+        <v>-3682</v>
+      </c>
+      <c r="M16">
+        <v>768111</v>
+      </c>
+      <c r="N16">
+        <v>-685158</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>-454768</v>
+      </c>
+      <c r="Q16">
+        <v>92411</v>
+      </c>
+      <c r="R16">
+        <v>617711</v>
+      </c>
+      <c r="S16">
+        <v>343779</v>
+      </c>
+      <c r="T16">
+        <v>273932</v>
+      </c>
+      <c r="U16">
+        <v>525300</v>
+      </c>
+      <c r="V16">
+        <v>-202421</v>
+      </c>
+      <c r="W16">
+        <v>445749</v>
+      </c>
+      <c r="X16">
+        <v>445749</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>648170</v>
+      </c>
+      <c r="AA16">
+        <v>-344758</v>
+      </c>
+      <c r="AB16">
+        <v>1244468</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <v>1223555</v>
+      </c>
+      <c r="C17">
+        <v>-52380</v>
+      </c>
+      <c r="D17">
+        <v>183488</v>
+      </c>
+      <c r="E17">
+        <v>235869</v>
+      </c>
+      <c r="F17">
+        <v>750197</v>
+      </c>
+      <c r="G17">
+        <v>1716996</v>
+      </c>
+      <c r="H17">
+        <v>966799</v>
+      </c>
+      <c r="I17">
+        <v>-9106</v>
+      </c>
+      <c r="J17">
+        <v>111491</v>
+      </c>
+      <c r="K17">
+        <v>1300858</v>
+      </c>
+      <c r="L17">
+        <v>-158</v>
+      </c>
+      <c r="M17">
+        <v>1301016</v>
+      </c>
+      <c r="N17">
+        <v>-877505</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>-1798189</v>
+      </c>
+      <c r="Q17">
+        <v>-492638</v>
+      </c>
+      <c r="R17">
+        <v>107356</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>107356</v>
+      </c>
+      <c r="U17">
+        <v>599994</v>
+      </c>
+      <c r="V17">
+        <v>-887154</v>
+      </c>
+      <c r="W17">
+        <v>356547</v>
+      </c>
+      <c r="X17">
+        <v>356547</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>1243701</v>
+      </c>
+      <c r="AA17">
+        <v>-418397</v>
+      </c>
+      <c r="AB17">
+        <v>3021744</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>4475966</v>
+      </c>
+      <c r="C18">
+        <v>-147994</v>
+      </c>
+      <c r="D18">
+        <v>183160</v>
+      </c>
+      <c r="E18">
+        <v>331154</v>
+      </c>
+      <c r="F18">
+        <v>3406784</v>
+      </c>
+      <c r="G18">
+        <v>5223388</v>
+      </c>
+      <c r="H18">
+        <v>1816604</v>
+      </c>
+      <c r="I18">
+        <v>-13559</v>
+      </c>
+      <c r="J18">
+        <v>366627</v>
+      </c>
+      <c r="K18">
+        <v>1754259</v>
+      </c>
+      <c r="L18">
+        <v>-8865</v>
+      </c>
+      <c r="M18">
+        <v>1763124</v>
+      </c>
+      <c r="N18">
+        <v>-890151</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>-1522249</v>
+      </c>
+      <c r="Q18">
+        <v>-56958</v>
+      </c>
+      <c r="R18">
+        <v>54242</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>54242</v>
+      </c>
+      <c r="U18">
+        <v>111200</v>
+      </c>
+      <c r="V18">
+        <v>-946352</v>
+      </c>
+      <c r="W18">
+        <v>1360</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>1360</v>
+      </c>
+      <c r="Z18">
+        <v>947712</v>
+      </c>
+      <c r="AA18">
+        <v>-518939</v>
+      </c>
+      <c r="AB18">
+        <v>5998216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>5892552</v>
+      </c>
+      <c r="C19">
+        <v>74279</v>
+      </c>
+      <c r="D19">
+        <v>263023</v>
+      </c>
+      <c r="E19">
+        <v>188744</v>
+      </c>
+      <c r="F19">
+        <v>6630313</v>
+      </c>
+      <c r="G19">
+        <v>11815496</v>
+      </c>
+      <c r="H19">
+        <v>5185183</v>
+      </c>
+      <c r="I19">
+        <v>-11481</v>
+      </c>
+      <c r="J19">
+        <v>609292</v>
+      </c>
+      <c r="K19">
+        <v>2339</v>
+      </c>
+      <c r="L19">
+        <v>-31258</v>
+      </c>
+      <c r="M19">
+        <v>33597</v>
+      </c>
+      <c r="N19">
+        <v>-1412190</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>-1158625</v>
+      </c>
+      <c r="Q19">
+        <v>-288428</v>
+      </c>
+      <c r="R19">
+        <v>32497</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>32497</v>
+      </c>
+      <c r="U19">
+        <v>320925</v>
+      </c>
+      <c r="V19">
+        <v>-291797</v>
+      </c>
+      <c r="W19">
+        <v>421355</v>
+      </c>
+      <c r="X19">
+        <v>358973</v>
+      </c>
+      <c r="Y19">
+        <v>62382</v>
+      </c>
+      <c r="Z19">
+        <v>713152</v>
+      </c>
+      <c r="AA19">
+        <v>-578400</v>
+      </c>
+      <c r="AB19">
+        <v>7051177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>3468505</v>
+      </c>
+      <c r="C20">
+        <v>292379</v>
+      </c>
+      <c r="D20">
+        <v>482464</v>
+      </c>
+      <c r="E20">
+        <v>190085</v>
+      </c>
+      <c r="F20">
+        <v>2295079</v>
+      </c>
+      <c r="G20">
+        <v>5016100</v>
+      </c>
+      <c r="H20">
+        <v>2721021</v>
+      </c>
+      <c r="I20">
+        <v>17313</v>
+      </c>
+      <c r="J20">
+        <v>643121</v>
+      </c>
+      <c r="K20">
+        <v>-131846</v>
+      </c>
+      <c r="L20">
+        <v>-224665</v>
+      </c>
+      <c r="M20">
+        <v>92819</v>
+      </c>
+      <c r="N20">
+        <v>352459</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>-178518</v>
+      </c>
+      <c r="Q20">
+        <v>-219021</v>
+      </c>
+      <c r="R20">
+        <v>208223</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>208223</v>
+      </c>
+      <c r="U20">
+        <v>427244</v>
+      </c>
+      <c r="V20">
+        <v>656734</v>
+      </c>
+      <c r="W20">
+        <v>1213899</v>
+      </c>
+      <c r="X20">
+        <v>918771</v>
+      </c>
+      <c r="Y20">
+        <v>295128</v>
+      </c>
+      <c r="Z20">
+        <v>557165</v>
+      </c>
+      <c r="AA20">
+        <v>-616231</v>
+      </c>
+      <c r="AB20">
+        <v>3647023</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21">
+        <v>-3888469</v>
+      </c>
+      <c r="C21">
+        <v>70249</v>
+      </c>
+      <c r="D21">
+        <v>472648</v>
+      </c>
+      <c r="E21">
+        <v>402399</v>
+      </c>
+      <c r="F21">
+        <v>-3922291</v>
+      </c>
+      <c r="G21">
+        <v>3254874</v>
+      </c>
+      <c r="H21">
+        <v>7177164</v>
+      </c>
+      <c r="I21">
+        <v>6013</v>
+      </c>
+      <c r="J21">
+        <v>-48801</v>
+      </c>
+      <c r="K21">
+        <v>8399</v>
+      </c>
+      <c r="L21">
+        <v>-64019</v>
+      </c>
+      <c r="M21">
+        <v>72418</v>
+      </c>
+      <c r="N21">
+        <v>-2038</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>308401</v>
+      </c>
+      <c r="Q21">
+        <v>-374756</v>
+      </c>
+      <c r="R21">
+        <v>54771</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>54771</v>
+      </c>
+      <c r="U21">
+        <v>429527</v>
+      </c>
+      <c r="V21">
+        <v>1425680</v>
+      </c>
+      <c r="W21">
+        <v>1678921</v>
+      </c>
+      <c r="X21">
+        <v>1638220</v>
+      </c>
+      <c r="Y21">
+        <v>40701</v>
+      </c>
+      <c r="Z21">
+        <v>253241</v>
+      </c>
+      <c r="AA21">
+        <v>-742523</v>
+      </c>
+      <c r="AB21">
+        <v>-4196869</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
+        <v>2262285</v>
+      </c>
+      <c r="C22">
+        <v>28742</v>
+      </c>
+      <c r="D22">
+        <v>351110</v>
+      </c>
+      <c r="E22">
+        <v>322368</v>
+      </c>
+      <c r="F22">
+        <v>2423207</v>
+      </c>
+      <c r="G22">
+        <v>3690930</v>
+      </c>
+      <c r="H22">
+        <v>1267723</v>
+      </c>
+      <c r="I22">
+        <v>-6334</v>
+      </c>
+      <c r="J22">
+        <v>-157569</v>
+      </c>
+      <c r="K22">
+        <v>-210899</v>
+      </c>
+      <c r="L22">
+        <v>-212580</v>
+      </c>
+      <c r="M22">
+        <v>1680</v>
+      </c>
+      <c r="N22">
+        <v>185138</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>2765732</v>
+      </c>
+      <c r="Q22">
+        <v>797451</v>
+      </c>
+      <c r="R22">
+        <v>859012</v>
+      </c>
+      <c r="S22">
+        <v>799737</v>
+      </c>
+      <c r="T22">
+        <v>59275</v>
+      </c>
+      <c r="U22">
+        <v>61561</v>
+      </c>
+      <c r="V22">
+        <v>2754300</v>
+      </c>
+      <c r="W22">
+        <v>3134618</v>
+      </c>
+      <c r="X22">
+        <v>3134558</v>
+      </c>
+      <c r="Y22">
+        <v>60</v>
+      </c>
+      <c r="Z22">
+        <v>380318</v>
+      </c>
+      <c r="AA22">
+        <v>-786018</v>
+      </c>
+      <c r="AB22">
+        <v>-503448</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23">
+        <v>3752076</v>
+      </c>
+      <c r="C23">
+        <v>-88925</v>
+      </c>
+      <c r="D23">
+        <v>208299</v>
+      </c>
+      <c r="E23">
+        <v>297224</v>
+      </c>
+      <c r="F23">
+        <v>4084769</v>
+      </c>
+      <c r="G23">
+        <v>7426876</v>
+      </c>
+      <c r="H23">
+        <v>3342107</v>
+      </c>
+      <c r="I23">
+        <v>-35641</v>
+      </c>
+      <c r="J23">
+        <v>-207222</v>
+      </c>
+      <c r="K23">
+        <v>-899</v>
+      </c>
+      <c r="L23">
+        <v>-899</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>-5</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>2192652</v>
+      </c>
+      <c r="Q23">
+        <v>621204</v>
+      </c>
+      <c r="R23">
+        <v>697867</v>
+      </c>
+      <c r="S23">
+        <v>659519</v>
+      </c>
+      <c r="T23">
+        <v>38348</v>
+      </c>
+      <c r="U23">
+        <v>76663</v>
+      </c>
+      <c r="V23">
+        <v>2372060</v>
+      </c>
+      <c r="W23">
+        <v>2908567</v>
+      </c>
+      <c r="X23">
+        <v>2908567</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>536507</v>
+      </c>
+      <c r="AA23">
+        <v>-800611</v>
+      </c>
+      <c r="AB23">
+        <v>1559424</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>1288795</v>
+      </c>
+      <c r="C24">
+        <v>-46095</v>
+      </c>
+      <c r="D24">
+        <v>219064</v>
+      </c>
+      <c r="E24">
+        <v>265159</v>
+      </c>
+      <c r="F24">
+        <v>981201</v>
+      </c>
+      <c r="G24">
+        <v>6311828</v>
+      </c>
+      <c r="H24">
+        <v>5330626</v>
+      </c>
+      <c r="I24">
+        <v>-16399</v>
+      </c>
+      <c r="J24">
+        <v>371083</v>
+      </c>
+      <c r="K24">
+        <v>-998</v>
+      </c>
+      <c r="L24">
+        <v>-998</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>561128</v>
+      </c>
+      <c r="Q24">
+        <v>326174</v>
+      </c>
+      <c r="R24">
+        <v>729635</v>
+      </c>
+      <c r="S24">
+        <v>703862</v>
+      </c>
+      <c r="T24">
+        <v>25773</v>
+      </c>
+      <c r="U24">
+        <v>403460</v>
+      </c>
+      <c r="V24">
+        <v>1062014</v>
+      </c>
+      <c r="W24">
+        <v>1676163</v>
+      </c>
+      <c r="X24">
+        <v>1676163</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>614149</v>
+      </c>
+      <c r="AA24">
+        <v>-827060</v>
+      </c>
+      <c r="AB24">
+        <v>727667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25">
+        <v>-640318</v>
+      </c>
+      <c r="C25">
+        <v>-189469</v>
+      </c>
+      <c r="D25">
+        <v>187745</v>
+      </c>
+      <c r="E25">
+        <v>377214</v>
+      </c>
+      <c r="F25">
+        <v>190063</v>
+      </c>
+      <c r="G25">
+        <v>5647820</v>
+      </c>
+      <c r="H25">
+        <v>5457757</v>
+      </c>
+      <c r="I25">
+        <v>-16008</v>
+      </c>
+      <c r="J25">
+        <v>-624905</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>183421</v>
+      </c>
+      <c r="Q25">
+        <v>-448604</v>
+      </c>
+      <c r="R25">
+        <v>4228</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>4228</v>
+      </c>
+      <c r="U25">
+        <v>452832</v>
+      </c>
+      <c r="V25">
+        <v>1472437</v>
+      </c>
+      <c r="W25">
+        <v>2209273</v>
+      </c>
+      <c r="X25">
+        <v>2209273</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>736836</v>
+      </c>
+      <c r="AA25">
+        <v>-840412</v>
+      </c>
+      <c r="AB25">
+        <v>-823740</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26">
+        <v>246797</v>
+      </c>
+      <c r="C26">
+        <v>-84059</v>
+      </c>
+      <c r="D26">
+        <v>205160</v>
+      </c>
+      <c r="E26">
+        <v>289219</v>
+      </c>
+      <c r="F26">
+        <v>1610653</v>
+      </c>
+      <c r="G26">
+        <v>5747172</v>
+      </c>
+      <c r="H26">
+        <v>4136519</v>
+      </c>
+      <c r="I26">
+        <v>-6461</v>
+      </c>
+      <c r="J26">
+        <v>-1273336</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>2657743</v>
+      </c>
+      <c r="Q26">
+        <v>873992</v>
+      </c>
+      <c r="R26">
+        <v>1270979</v>
+      </c>
+      <c r="S26">
+        <v>1247177</v>
+      </c>
+      <c r="T26">
+        <v>23802</v>
+      </c>
+      <c r="U26">
+        <v>396987</v>
+      </c>
+      <c r="V26">
+        <v>2574376</v>
+      </c>
+      <c r="W26">
+        <v>3718528</v>
+      </c>
+      <c r="X26">
+        <v>3718528</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>1144152</v>
+      </c>
+      <c r="AA26">
+        <v>-790625</v>
+      </c>
+      <c r="AB26">
+        <v>-2410946</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27">
+        <v>-369106</v>
+      </c>
+      <c r="C27">
+        <v>46236</v>
+      </c>
+      <c r="D27">
+        <v>402934</v>
+      </c>
+      <c r="E27">
+        <v>356698</v>
+      </c>
+      <c r="F27">
+        <v>-586704</v>
+      </c>
+      <c r="G27">
+        <v>4999018</v>
+      </c>
+      <c r="H27">
+        <v>5585722</v>
+      </c>
+      <c r="I27">
+        <v>-21029</v>
+      </c>
+      <c r="J27">
+        <v>192392</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>3041473</v>
+      </c>
+      <c r="Q27">
+        <v>846157</v>
+      </c>
+      <c r="R27">
+        <v>950702</v>
+      </c>
+      <c r="S27">
+        <v>912376</v>
+      </c>
+      <c r="T27">
+        <v>38326</v>
+      </c>
+      <c r="U27">
+        <v>104545</v>
+      </c>
+      <c r="V27">
+        <v>2938349</v>
+      </c>
+      <c r="W27">
+        <v>4653384</v>
+      </c>
+      <c r="X27">
+        <v>4653384</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>1715035</v>
+      </c>
+      <c r="AA27">
+        <v>-743033</v>
+      </c>
+      <c r="AB27">
+        <v>-3410578</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28">
+        <v>1031939</v>
+      </c>
+      <c r="C28">
+        <v>-142433</v>
+      </c>
+      <c r="D28">
+        <v>326708</v>
+      </c>
+      <c r="E28">
+        <v>469141</v>
+      </c>
+      <c r="F28">
+        <v>1560526</v>
+      </c>
+      <c r="G28">
+        <v>6039331</v>
+      </c>
+      <c r="H28">
+        <v>4478805</v>
+      </c>
+      <c r="I28">
+        <v>-16938</v>
+      </c>
+      <c r="J28">
+        <v>-369217</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>5628807</v>
+      </c>
+      <c r="Q28">
+        <v>1403369</v>
+      </c>
+      <c r="R28">
+        <v>1945463</v>
+      </c>
+      <c r="S28">
+        <v>1877982</v>
+      </c>
+      <c r="T28">
+        <v>67481</v>
+      </c>
+      <c r="U28">
+        <v>542094</v>
+      </c>
+      <c r="V28">
+        <v>4933434</v>
+      </c>
+      <c r="W28">
+        <v>18005909</v>
+      </c>
+      <c r="X28">
+        <v>18005909</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>13072475</v>
+      </c>
+      <c r="AA28">
+        <v>-707996</v>
+      </c>
+      <c r="AB28">
+        <v>-4596869</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29">
+        <v>645308</v>
+      </c>
+      <c r="C29">
+        <v>186694</v>
+      </c>
+      <c r="D29">
+        <v>775343</v>
+      </c>
+      <c r="E29">
+        <v>588649</v>
+      </c>
+      <c r="F29">
+        <v>709053</v>
+      </c>
+      <c r="G29">
+        <v>5627265</v>
+      </c>
+      <c r="H29">
+        <v>4918212</v>
+      </c>
+      <c r="I29">
+        <v>16398</v>
+      </c>
+      <c r="J29">
+        <v>-266837</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>5592686</v>
+      </c>
+      <c r="Q29">
+        <v>1414619</v>
+      </c>
+      <c r="R29">
+        <v>1701995</v>
+      </c>
+      <c r="S29">
+        <v>1661950</v>
+      </c>
+      <c r="T29">
+        <v>40045</v>
+      </c>
+      <c r="U29">
+        <v>287376</v>
+      </c>
+      <c r="V29">
+        <v>4813524</v>
+      </c>
+      <c r="W29">
+        <v>6531053</v>
+      </c>
+      <c r="X29">
+        <v>6531053</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>1717529</v>
+      </c>
+      <c r="AA29">
+        <v>-635457</v>
+      </c>
+      <c r="AB29">
+        <v>-4947379</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30">
+        <v>16600</v>
+      </c>
+      <c r="C30">
+        <v>60955</v>
+      </c>
+      <c r="D30">
+        <v>818826</v>
+      </c>
+      <c r="E30">
+        <v>757870</v>
+      </c>
+      <c r="F30">
+        <v>305737</v>
+      </c>
+      <c r="G30">
+        <v>4604618</v>
+      </c>
+      <c r="H30">
+        <v>4298882</v>
+      </c>
+      <c r="I30">
+        <v>7367</v>
+      </c>
+      <c r="J30">
+        <v>-357459</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>3169937</v>
+      </c>
+      <c r="Q30">
+        <v>1268794</v>
+      </c>
+      <c r="R30">
+        <v>1929549</v>
+      </c>
+      <c r="S30">
+        <v>1807922</v>
+      </c>
+      <c r="T30">
+        <v>121627</v>
+      </c>
+      <c r="U30">
+        <v>660755</v>
+      </c>
+      <c r="V30">
+        <v>2472855</v>
+      </c>
+      <c r="W30">
+        <v>8050818</v>
+      </c>
+      <c r="X30">
+        <v>8050818</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>5577962</v>
+      </c>
+      <c r="AA30">
+        <v>-571712</v>
+      </c>
+      <c r="AB30">
+        <v>-3153338</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31">
+        <v>-1265404</v>
+      </c>
+      <c r="C31">
+        <v>-257143</v>
+      </c>
+      <c r="D31">
+        <v>982507</v>
+      </c>
+      <c r="E31">
+        <v>1239650</v>
+      </c>
+      <c r="F31">
+        <v>-1258174</v>
+      </c>
+      <c r="G31">
+        <v>5134386</v>
+      </c>
+      <c r="H31">
+        <v>6392560</v>
+      </c>
+      <c r="I31">
+        <v>-2801</v>
+      </c>
+      <c r="J31">
+        <v>252714</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>4355699</v>
+      </c>
+      <c r="Q31">
+        <v>1001038</v>
+      </c>
+      <c r="R31">
+        <v>1750959</v>
+      </c>
+      <c r="S31">
+        <v>1688362</v>
+      </c>
+      <c r="T31">
+        <v>62597</v>
+      </c>
+      <c r="U31">
+        <v>749921</v>
+      </c>
+      <c r="V31">
+        <v>3822110</v>
+      </c>
+      <c r="W31">
+        <v>7265480</v>
+      </c>
+      <c r="X31">
+        <v>7265480</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>3443369</v>
+      </c>
+      <c r="AA31">
+        <v>-467450</v>
+      </c>
+      <c r="AB31">
+        <v>-5621103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32">
         <v>-6395307</v>
       </c>
-      <c r="C10">
+      <c r="C32">
         <v>730524</v>
       </c>
-      <c r="D10">
+      <c r="D32">
         <v>2185090</v>
       </c>
-      <c r="E10">
+      <c r="E32">
         <v>1454566</v>
       </c>
-      <c r="F10">
+      <c r="F32">
         <v>-6170948</v>
       </c>
-      <c r="G10">
+      <c r="G32">
         <v>8510449</v>
       </c>
-      <c r="H10">
+      <c r="H32">
         <v>14681398</v>
       </c>
-      <c r="I10">
+      <c r="I32">
         <v>20352</v>
       </c>
-      <c r="J10">
+      <c r="J32">
         <v>-975235</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
         <v>8247614</v>
       </c>
-      <c r="Q10">
+      <c r="Q32">
         <v>3551266</v>
       </c>
-      <c r="R10">
+      <c r="R32">
         <v>4942551</v>
       </c>
-      <c r="S10">
+      <c r="S32">
         <v>4930861</v>
       </c>
-      <c r="T10">
+      <c r="T32">
         <v>11690</v>
       </c>
-      <c r="U10">
+      <c r="U32">
         <v>1391285</v>
       </c>
-      <c r="V10">
+      <c r="V32">
         <v>5092895</v>
       </c>
-      <c r="W10">
+      <c r="W32">
         <v>12942947</v>
       </c>
-      <c r="X10">
+      <c r="X32">
         <v>12942947</v>
       </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
         <v>7850051</v>
       </c>
-      <c r="AA10">
+      <c r="AA32">
         <v>-396547</v>
       </c>
-      <c r="AB10">
+      <c r="AB32">
         <v>-14642922</v>
       </c>
     </row>
